--- a/resob11191050.xlsx
+++ b/resob11191050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C1DAA0F1-9DAF-4E74-9384-322F51D3A78B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E0E12E28-1A1D-44B0-980A-A5551ABF3AE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>create</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimization</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +413,7 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,6 +846,9 @@
       <c r="W6">
         <v>0.19234879247702499</v>
       </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -905,6 +920,9 @@
       <c r="W7">
         <v>15.967294045047829</v>
       </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -975,6 +993,9 @@
       </c>
       <c r="W8">
         <v>38.464826053508837</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
